--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syates\Documents\code-projects\zpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjwyates/Documents/work-projects/zpl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9A1CE-2C95-9243-8C24-8411E8AEFB94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="7030"/>
+    <workbookView xWindow="11500" yWindow="2540" windowWidth="18420" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Sample Point</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>C7UP12402</t>
   </si>
   <si>
@@ -66,15 +64,12 @@
   </si>
   <si>
     <t>LL</t>
-  </si>
-  <si>
-    <t>________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddmmmyyyy"/>
   </numFmts>
@@ -412,22 +407,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,161 +435,131 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C8" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C10" s="3">
+        <v>44210</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44210</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
